--- a/KCOR_Bias_Correction_Table.xlsx
+++ b/KCOR_Bias_Correction_Table.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4CFDBC90-DA09-44AE-956D-53ED42D653EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E72EE-875B-4E51-87B3-AE9651BD74C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B033088B-D88C-4663-AFA2-A342DC9910AC}"/>
+    <workbookView minimized="1" xWindow="8170" yWindow="10350" windowWidth="14450" windowHeight="6150" xr2:uid="{B033088B-D88C-4663-AFA2-A342DC9910AC}"/>
   </bookViews>
   <sheets>
     <sheet name="KCOR_Bias_Correction_Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1x</t>
   </si>
@@ -37,13 +50,16 @@
     <t>5x</t>
   </si>
   <si>
-    <t>this is the annual bias correction for cohorts with enhanced frailty (measured by ACM ratios at that age)</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
     <t>https://chatgpt.com/share/6863f4f6-66d4-8009-ba01-e28069a90b50</t>
+  </si>
+  <si>
+    <t>this is the annual bias correction for cohorts with enhanced frailty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (measured by ACM ratios at that age)</t>
   </si>
 </sst>
 </file>
@@ -527,8 +543,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1049,32 +1069,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524EED8D-25C2-4CFE-9444-2E0544A64DC8}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1117,7 +1135,7 @@
         <v>3.87</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1140,7 +1158,7 @@
         <v>5.89</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1241,6 +1259,16 @@
       </c>
       <c r="F9">
         <v>27.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
